--- a/Resources/OblikaPaketa.xlsx
+++ b/Resources/OblikaPaketa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nejc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programi\STM32CubeIDE\SDV-PROJEKT\Projekt\PROJEKT\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81296E4-C832-47C5-B308-306B0649E042}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94A7A8B-40E4-41A7-8788-3AB452512B0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE9D87B8-02AC-4B1F-A85C-E6C6FD5855EA}"/>
+    <workbookView xWindow="8370" yWindow="2865" windowWidth="21600" windowHeight="11385" xr2:uid="{EE9D87B8-02AC-4B1F-A85C-E6C6FD5855EA}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="33">
-  <si>
-    <t>….</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
   <si>
     <t>BIT 7</t>
   </si>
@@ -60,13 +57,7 @@
     <t>BIT 0</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0 - 9</t>
   </si>
   <si>
     <t>Azimut</t>
@@ -78,34 +69,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t>0-15</t>
-  </si>
-  <si>
-    <t>0 - 255 [cm]</t>
-  </si>
-  <si>
-    <t>0-255 [cm]</t>
-  </si>
-  <si>
     <t>Robot 1</t>
-  </si>
-  <si>
-    <t>Rezerva</t>
-  </si>
-  <si>
-    <t>BYTE 31</t>
-  </si>
-  <si>
-    <t>BYTE 30</t>
-  </si>
-  <si>
-    <t>BYTE 29</t>
-  </si>
-  <si>
-    <t>Robot 10</t>
-  </si>
-  <si>
-    <t>Robot 2</t>
   </si>
   <si>
     <t>BYTE 3 (ID in Az)</t>
@@ -120,16 +84,16 @@
     <t>BYTE 2</t>
   </si>
   <si>
-    <t>Primer</t>
+    <t xml:space="preserve"> 0 - 7</t>
   </si>
   <si>
-    <t>72 °</t>
+    <t>0-511</t>
   </si>
   <si>
-    <t>11 cm</t>
+    <t>0-1023</t>
   </si>
   <si>
-    <t>23 cm</t>
+    <t xml:space="preserve"> 0 - 1023</t>
   </si>
 </sst>
 </file>
@@ -164,15 +128,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -189,8 +144,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,36 +189,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF07A7A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -335,21 +273,6 @@
       <left style="medium">
         <color theme="1"/>
       </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
       <right/>
       <top style="medium">
         <color theme="1"/>
@@ -398,19 +321,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -421,86 +338,69 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Izhod" xfId="1" builtinId="21"/>
@@ -553,7 +453,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1593698" y="4693060"/>
+          <a:off x="1586495" y="4661043"/>
           <a:ext cx="6498981" cy="5753100"/>
           <a:chOff x="1720965" y="4593808"/>
           <a:chExt cx="6498981" cy="5753100"/>
@@ -1891,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD7FC79-9788-4A90-9EB1-F39E73189C5A}">
   <dimension ref="B2:BF46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE28" sqref="AE28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M5" sqref="J5:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1901,1527 +1801,1377 @@
     <col min="35" max="58" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AI2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
-      <c r="BA2" s="18"/>
-      <c r="BB2" s="18"/>
-      <c r="BC2" s="18"/>
-      <c r="BD2" s="18"/>
-      <c r="BE2" s="18"/>
-      <c r="BF2" s="18"/>
-    </row>
-    <row r="3" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="12"/>
-      <c r="AN3" s="12"/>
-      <c r="AO3" s="12"/>
-      <c r="AP3" s="12"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="19"/>
-      <c r="AS3" s="19"/>
-      <c r="AT3" s="19"/>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="19"/>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="19"/>
-      <c r="AY3" s="19"/>
-      <c r="AZ3" s="19"/>
-      <c r="BA3" s="19"/>
-      <c r="BB3" s="19"/>
-      <c r="BC3" s="19"/>
-      <c r="BD3" s="19"/>
-      <c r="BE3" s="19"/>
-      <c r="BF3" s="19"/>
+    <row r="2" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="17"/>
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="17"/>
+      <c r="AR2" s="17"/>
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="17"/>
+      <c r="AU2" s="17"/>
+      <c r="AV2" s="17"/>
+      <c r="AW2" s="17"/>
+      <c r="AX2" s="17"/>
+      <c r="AY2" s="17"/>
+      <c r="AZ2" s="17"/>
+      <c r="BA2" s="17"/>
+      <c r="BB2" s="17"/>
+      <c r="BC2" s="17"/>
+      <c r="BD2" s="17"/>
+      <c r="BE2" s="17"/>
+      <c r="BF2" s="17"/>
+    </row>
+    <row r="3" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="17"/>
+      <c r="AK3" s="17"/>
+      <c r="AL3" s="17"/>
+      <c r="AM3" s="17"/>
+      <c r="AN3" s="17"/>
+      <c r="AO3" s="17"/>
+      <c r="AP3" s="17"/>
+      <c r="AQ3" s="17"/>
+      <c r="AR3" s="17"/>
+      <c r="AS3" s="17"/>
+      <c r="AT3" s="17"/>
+      <c r="AU3" s="17"/>
+      <c r="AV3" s="17"/>
+      <c r="AW3" s="17"/>
+      <c r="AX3" s="17"/>
+      <c r="AY3" s="17"/>
+      <c r="AZ3" s="17"/>
+      <c r="BA3" s="17"/>
+      <c r="BB3" s="17"/>
+      <c r="BC3" s="17"/>
+      <c r="BD3" s="17"/>
+      <c r="BE3" s="17"/>
+      <c r="BF3" s="17"/>
     </row>
     <row r="4" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="3" t="s">
+      <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
+      <c r="AS4" s="15"/>
+      <c r="AT4" s="15"/>
+      <c r="AU4" s="15"/>
+      <c r="AV4" s="15"/>
+      <c r="AW4" s="15"/>
+      <c r="AX4" s="15"/>
+      <c r="AY4" s="15"/>
+      <c r="AZ4" s="15"/>
+      <c r="BA4" s="15"/>
+      <c r="BB4" s="15"/>
+      <c r="BC4" s="15"/>
+      <c r="BD4" s="15"/>
+      <c r="BE4" s="15"/>
+      <c r="BF4" s="15"/>
+    </row>
+    <row r="5" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AI4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4"/>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="4"/>
-      <c r="BD4" s="4"/>
-      <c r="BE4" s="4"/>
-      <c r="BF4" s="4"/>
-    </row>
-    <row r="5" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD5" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF5" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="13"/>
+      <c r="AX5" s="13"/>
+      <c r="AY5" s="13"/>
+      <c r="AZ5" s="13"/>
+      <c r="BA5" s="13"/>
+      <c r="BB5" s="13"/>
+      <c r="BC5" s="13"/>
+      <c r="BD5" s="13"/>
+      <c r="BE5" s="13"/>
+      <c r="BF5" s="13"/>
+    </row>
+    <row r="6" spans="2:58" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH5" s="3" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AI5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AO5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AV5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AW5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AX5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AY5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BA5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BC5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="BD5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="BE5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI6" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ6" s="27"/>
-      <c r="AK6" s="27"/>
-      <c r="AL6" s="27"/>
-      <c r="AM6" s="27"/>
-      <c r="AN6" s="27"/>
-      <c r="AO6" s="27"/>
-      <c r="AP6" s="28"/>
-      <c r="AQ6" s="15" t="s">
-        <v>19</v>
-      </c>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
+      <c r="AK6" s="16"/>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="16"/>
+      <c r="AO6" s="16"/>
+      <c r="AP6" s="16"/>
+      <c r="AQ6" s="16"/>
       <c r="AR6" s="16"/>
       <c r="AS6" s="16"/>
       <c r="AT6" s="16"/>
       <c r="AU6" s="16"/>
       <c r="AV6" s="16"/>
       <c r="AW6" s="16"/>
-      <c r="AX6" s="17"/>
-      <c r="AY6" s="15" t="s">
-        <v>19</v>
-      </c>
+      <c r="AX6" s="16"/>
+      <c r="AY6" s="16"/>
       <c r="AZ6" s="16"/>
       <c r="BA6" s="16"/>
       <c r="BB6" s="16"/>
       <c r="BC6" s="16"/>
       <c r="BD6" s="16"/>
       <c r="BE6" s="16"/>
-      <c r="BF6" s="17"/>
+      <c r="BF6" s="16"/>
     </row>
     <row r="7" spans="2:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AH7" s="1"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="11"/>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="11"/>
+      <c r="AR7" s="11"/>
+      <c r="AS7" s="11"/>
+      <c r="AT7" s="11"/>
+      <c r="AU7" s="11"/>
+      <c r="AV7" s="11"/>
+      <c r="AW7" s="11"/>
+      <c r="AX7" s="11"/>
+      <c r="AY7" s="11"/>
+      <c r="AZ7" s="11"/>
+      <c r="BA7" s="11"/>
+      <c r="BB7" s="11"/>
+      <c r="BC7" s="11"/>
+      <c r="BD7" s="11"/>
+      <c r="BE7" s="11"/>
+      <c r="BF7" s="11"/>
     </row>
     <row r="8" spans="2:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5"/>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AJ8" s="7"/>
-      <c r="AK8" s="7"/>
-      <c r="AL8" s="7"/>
-      <c r="AM8" s="7"/>
-      <c r="AN8" s="7"/>
-      <c r="AO8" s="7"/>
-      <c r="AP8" s="9"/>
-      <c r="AQ8" s="20" t="s">
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AR8" s="21"/>
-      <c r="AS8" s="21"/>
-      <c r="AT8" s="21"/>
-      <c r="AU8" s="21"/>
-      <c r="AV8" s="21"/>
-      <c r="AW8" s="21"/>
-      <c r="AX8" s="21"/>
-      <c r="AY8" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ8" s="21"/>
-      <c r="BA8" s="21"/>
-      <c r="BB8" s="21"/>
-      <c r="BC8" s="21"/>
-      <c r="BD8" s="21"/>
-      <c r="BE8" s="21"/>
-      <c r="BF8" s="22"/>
-    </row>
-    <row r="11" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B11" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-    </row>
-    <row r="12" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-    </row>
-    <row r="14" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-    </row>
-    <row r="15" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-    </row>
-    <row r="16" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-    </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B18" s="25">
-        <v>0</v>
-      </c>
-      <c r="C18" s="25">
-        <v>0</v>
-      </c>
-      <c r="D18" s="25">
-        <v>0</v>
-      </c>
-      <c r="E18" s="25">
-        <v>1</v>
-      </c>
-      <c r="F18" s="39">
-        <v>0</v>
-      </c>
-      <c r="G18" s="39">
-        <v>0</v>
-      </c>
-      <c r="H18" s="39">
-        <v>1</v>
-      </c>
-      <c r="I18" s="39">
-        <v>1</v>
-      </c>
-      <c r="J18" s="35">
-        <v>0</v>
-      </c>
-      <c r="K18" s="36">
-        <v>0</v>
-      </c>
-      <c r="L18" s="36">
-        <v>0</v>
-      </c>
-      <c r="M18" s="36">
-        <v>1</v>
-      </c>
-      <c r="N18" s="36">
-        <v>0</v>
-      </c>
-      <c r="O18" s="36">
-        <v>1</v>
-      </c>
-      <c r="P18" s="36">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="37">
-        <v>1</v>
-      </c>
-      <c r="R18" s="29">
-        <v>0</v>
-      </c>
-      <c r="S18" s="30">
-        <v>0</v>
-      </c>
-      <c r="T18" s="30">
-        <v>0</v>
-      </c>
-      <c r="U18" s="30">
-        <v>0</v>
-      </c>
-      <c r="V18" s="30">
-        <v>1</v>
-      </c>
-      <c r="W18" s="30">
-        <v>0</v>
-      </c>
-      <c r="X18" s="30">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="5">
-        <v>1</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="18"/>
+      <c r="AL8" s="18"/>
+      <c r="AM8" s="18"/>
+      <c r="AN8" s="18"/>
+      <c r="AO8" s="18"/>
+      <c r="AP8" s="18"/>
+      <c r="AQ8" s="18"/>
+      <c r="AR8" s="18"/>
+      <c r="AS8" s="18"/>
+      <c r="AT8" s="18"/>
+      <c r="AU8" s="18"/>
+      <c r="AV8" s="18"/>
+      <c r="AW8" s="18"/>
+      <c r="AX8" s="18"/>
+      <c r="AY8" s="18"/>
+      <c r="AZ8" s="18"/>
+      <c r="BA8" s="18"/>
+      <c r="BB8" s="18"/>
+      <c r="BC8" s="18"/>
+      <c r="BD8" s="18"/>
+      <c r="BE8" s="18"/>
+      <c r="BF8" s="18"/>
+    </row>
+    <row r="11" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+    </row>
+    <row r="12" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+    </row>
+    <row r="13" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+    </row>
+    <row r="14" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+    </row>
+    <row r="15" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+    </row>
+    <row r="16" spans="2:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+    </row>
+    <row r="17" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+    </row>
+    <row r="18" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+    </row>
+    <row r="19" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+    </row>
+    <row r="20" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
       <c r="Y20" s="9"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="10"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="10"/>
-      <c r="Y32" s="10"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
     </row>
     <row r="33" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
     </row>
     <row r="34" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
-      <c r="X34" s="10"/>
-      <c r="Y34" s="10"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
     </row>
     <row r="35" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="10"/>
-      <c r="Y35" s="10"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10"/>
-      <c r="W36" s="10"/>
-      <c r="X36" s="10"/>
-      <c r="Y36" s="10"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
     </row>
     <row r="37" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
-      <c r="W37" s="10"/>
-      <c r="X37" s="10"/>
-      <c r="Y37" s="10"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
     </row>
     <row r="38" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
-      <c r="Y38" s="10"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
     </row>
     <row r="39" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
     </row>
     <row r="40" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="10"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
     </row>
     <row r="41" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="10"/>
-      <c r="Y41" s="10"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
     </row>
     <row r="42" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="10"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
     </row>
     <row r="43" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="10"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
     </row>
     <row r="44" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="10"/>
-      <c r="W44" s="10"/>
-      <c r="X44" s="10"/>
-      <c r="Y44" s="10"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
     </row>
     <row r="45" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="10"/>
-      <c r="W45" s="10"/>
-      <c r="X45" s="10"/>
-      <c r="Y45" s="10"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
     </row>
     <row r="46" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="10"/>
-      <c r="X46" s="10"/>
-      <c r="Y46" s="10"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="B23:Y46"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="R20:Y20"/>
-    <mergeCell ref="AI8:AP8"/>
-    <mergeCell ref="AQ8:AX8"/>
-    <mergeCell ref="AY4:BF4"/>
-    <mergeCell ref="AY6:BF6"/>
-    <mergeCell ref="AY8:BF8"/>
-    <mergeCell ref="B2:Y3"/>
-    <mergeCell ref="Z2:AG3"/>
-    <mergeCell ref="AI4:AP4"/>
-    <mergeCell ref="AQ4:AX4"/>
-    <mergeCell ref="AI6:AP6"/>
-    <mergeCell ref="AQ6:AX6"/>
-    <mergeCell ref="AI2:AP3"/>
-    <mergeCell ref="AQ2:BF3"/>
+  <mergeCells count="14">
+    <mergeCell ref="N8:W8"/>
+    <mergeCell ref="B2:AG3"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="E8:M8"/>
+    <mergeCell ref="N6:W6"/>
+    <mergeCell ref="X6:AG6"/>
+    <mergeCell ref="X8:AG8"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:Q4"/>
     <mergeCell ref="R4:Y4"/>
     <mergeCell ref="Z4:AG4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="R6:Y6"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="J6:Q6"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Q8"/>
-    <mergeCell ref="R8:Y8"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="R16:Y16"/>
-    <mergeCell ref="B11:Y12"/>
-    <mergeCell ref="B14:Y15"/>
+    <mergeCell ref="B23:Y46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
